--- a/diagram/right_arm_diagram.xlsx
+++ b/diagram/right_arm_diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Agiat_Ikazinat\Agiat_Ikazinat\diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97298589-FEAE-4FDC-8C31-D6DD97184371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A77C94-6EE9-4F75-86C9-C5359FBF126E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="12240" windowHeight="11235" xr2:uid="{21ED56F5-050F-415B-9EE0-29B5FD0E8F4C}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11235" xr2:uid="{21ED56F5-050F-415B-9EE0-29B5FD0E8F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -78,6 +78,30 @@
   </si>
   <si>
     <t>M4</t>
+  </si>
+  <si>
+    <t>Dir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dir </t>
+  </si>
+  <si>
+    <t>Inside</t>
+  </si>
+  <si>
+    <t>Outside</t>
+  </si>
+  <si>
+    <t>Backward</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>up</t>
   </si>
 </sst>
 </file>
@@ -133,15 +157,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{65985C0E-0513-4B9A-8256-E321637D729D}" name="right_arm" displayName="right_arm" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5" xr:uid="{65985C0E-0513-4B9A-8256-E321637D729D}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{65985C0E-0513-4B9A-8256-E321637D729D}" name="right_arm" displayName="right_arm" ref="A1:H5" totalsRowShown="0">
+  <autoFilter ref="A1:H5" xr:uid="{65985C0E-0513-4B9A-8256-E321637D729D}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{28B1C3E8-8863-40B0-A48D-96D737409A65}" name="Name"/>
     <tableColumn id="2" xr3:uid="{719A934E-E19B-4EA4-BFF4-D7A035F6BEF0}" name="Num"/>
     <tableColumn id="3" xr3:uid="{159AB01B-21D8-4774-88A5-8D4C217A2ADF}" name="Degree (A)"/>
     <tableColumn id="4" xr3:uid="{AE776E12-6F79-4BF6-865E-662A8D7EBCA9}" name="Min"/>
+    <tableColumn id="7" xr3:uid="{4EA1C1B8-2398-4049-8474-3045DDC59A79}" name="Dir"/>
     <tableColumn id="5" xr3:uid="{E1636143-5F83-4019-B1AC-344930F4A78C}" name="Mid"/>
     <tableColumn id="6" xr3:uid="{4E84621B-4691-4182-B746-9EBC2595851F}" name="Max"/>
+    <tableColumn id="8" xr3:uid="{045C580B-BDE4-42F6-9A41-401442646630}" name="Dir "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -464,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F52B34C-3AD8-4058-B311-96787D72F702}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +502,7 @@
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,13 +516,19 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -506,8 +538,23 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>130</v>
+      </c>
+      <c r="G2">
+        <v>180</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -517,8 +564,23 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
+      <c r="G3">
+        <v>180</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -528,8 +590,23 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>130</v>
+      </c>
+      <c r="G4">
+        <v>135</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -538,6 +615,21 @@
       </c>
       <c r="C5">
         <v>3</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>80</v>
+      </c>
+      <c r="G5">
+        <v>173</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
